--- a/02_MasterWifoMannheim/99_Backup/Course89.xlsx
+++ b/02_MasterWifoMannheim/99_Backup/Course89.xlsx
@@ -1,136 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Masterarbeit/Course_Suggestion/02_MasterWifoMannheim/03_Courses/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_2B59D2BFD32051265F592811596B00F14B55F87D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{19B5192B-F924-4539-AF4F-048A2EF7C8A3}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
-  <si>
-    <t>Module</t>
-  </si>
-  <si>
-    <t>IS 513 Applied IT Management in the Digital Age</t>
-  </si>
-  <si>
-    <t>Contents</t>
-  </si>
-  <si>
-    <t>IT management today is challenged by fast technological change, new digital opportunities, growing cost pressure, and increasing business and regulatory requirements. IT management needs to ensure that before. For a state-of-the-art IT management a solid know-how regarding - Intelligent demand management, - Application and data architecture, - IT infrastructure, - Organization and workforce management, - Business/IT governance and lean IT processes, and - Sourcing and location setup incl. vendor and partner management are crucial. In addition, it is expected that IT managers have a good understanding of the core business of their company (business/IT alignment) and sound Furthermore, evaluate the value of new technologies, and drive digital transformation jointly with the business.</t>
-  </si>
-  <si>
-    <t>Learning outcomes</t>
-  </si>
-  <si>
-    <t>The lecture addresses key challenges that capabilities and tools required to manage these challenges successfully. The concrete application of the lectured content will be explained using selected case studies. The lecture focuses on banking as one concrete industry example. The fundamental principles, however, can be applied across industries.</t>
-  </si>
-  <si>
-    <t>Prerequisites</t>
-  </si>
-  <si>
-    <t>Obligatory registration</t>
-  </si>
-  <si>
-    <t>Further Information on the registration:513 has no max. number of participants, an enrollment via the student portal is necessary for getting access to the course material. You will be directly admitted if you meet the requirements.</t>
-  </si>
-  <si>
-    <t>Courses Hours per week Self-study Lecture 2 10 ECTS in total 6</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Form of assessment</t>
-  </si>
-  <si>
-    <t>Written exam (80%), Case study (20%)</t>
-  </si>
-  <si>
-    <t>Preliminary course work -</t>
-  </si>
-  <si>
-    <t>Lecturer/Person in charge</t>
-  </si>
-  <si>
-    <t>Dr. Michael Grebe / Prof. Dr. Armin Heinzl</t>
-  </si>
-  <si>
-    <t>Duration of module</t>
-  </si>
-  <si>
-    <t>1 semester</t>
-  </si>
-  <si>
-    <t>Offering</t>
-  </si>
-  <si>
-    <t>Spring semester</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Program-specific educational goals</t>
-  </si>
-  <si>
-    <t>Grade</t>
-  </si>
-  <si>
-    <t>graded</t>
-  </si>
-  <si>
-    <t>Range of application</t>
-  </si>
-  <si>
-    <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., M.Sc. Econ.</t>
-  </si>
-  <si>
-    <t>Benötigte Kurse</t>
-  </si>
-  <si>
-    <t>IS 512</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -145,46 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -472,148 +420,209 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="189.7109375" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1">
+      <c r="A1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="2"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>26</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>IS 513 Applied IT Management in the Digital Age</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Contents</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>IT management today is challenged by fast technological change, new digital opportunities, growing cost pressure, and increasing business and regulatory requirements. IT management needs to ensure that before. For a state-of-the-art IT management a solid know-how regarding - Intelligent demand management, - Application and data architecture, - IT infrastructure, - Organization and workforce management, - Business/IT governance and lean IT processes, and - Sourcing and location setup incl. vendor and partner management are crucial. In addition, it is expected that IT managers have a good understanding of the core business of their company (business/IT alignment) and sound Furthermore, evaluate the value of new technologies, and drive digital transformation jointly with the business.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Learning outcomes</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>The lecture addresses key challenges that capabilities and tools required to manage these challenges successfully. The concrete application of the lectured content will be explained using selected case studies. The lecture focuses on banking as one concrete industry example. The fundamental principles, however, can be applied across industries.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Prerequisites</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>IS 512</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Benötigte Kurse</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>IS 512</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Obligatory registration</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Further Information on the registration:513 has no max. number of participants, an enrollment via the student portal is necessary for getting access to the course material. You will be directly admitted if you meet the requirements.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ECTS</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Form of assessment</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Written exam (80%), Case study (20%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Preliminary course work -</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Lecturer/Person in charge</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Dr. Michael Grebe / Prof. Dr. Armin Heinzl</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Duration of module</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1 semester</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Offering</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>SSS</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Language</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>English</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Program-specific educational goals</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Grade</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>graded</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Range of application</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>M.Sc. MMM, M.Sc. MMBR, M.Sc. Bus. Edu., M.Sc. Bus. Inf., M.Sc. Econ.</t>
+        </is>
       </c>
     </row>
   </sheetData>
